--- a/Docs/arbol vistas.xlsx
+++ b/Docs/arbol vistas.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Roy\Unla\OOP 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Roy\Unla\OOP 2\SubeUnla\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{462BF4A1-3E3D-4981-A1D9-7C05A94C03D7}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DEEF9991-935B-4C59-9A36-D79A44BF78D3}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8940" xr2:uid="{1CEAAD02-3369-4C3A-AE33-5725CC852D61}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
   <si>
     <t>Vista Sube</t>
   </si>
@@ -133,36 +133,6 @@
   </si>
   <si>
     <t>SEGUNDA CAPA</t>
-  </si>
-  <si>
-    <t>CASO DE USO</t>
-  </si>
-  <si>
-    <t>jsp</t>
-  </si>
-  <si>
-    <t>envia</t>
-  </si>
-  <si>
-    <t>recibe</t>
-  </si>
-  <si>
-    <t>ingresar al sistema</t>
-  </si>
-  <si>
-    <t>login</t>
-  </si>
-  <si>
-    <t>String usuario, String password</t>
-  </si>
-  <si>
-    <t>mensaje error o redireccion a panel de control</t>
-  </si>
-  <si>
-    <t>ignresar tarjeta sube</t>
-  </si>
-  <si>
-    <t>registro sube</t>
   </si>
 </sst>
 </file>
@@ -514,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CDE3D86-82AF-44F8-AA10-6C1FADACFA1A}">
-  <dimension ref="B2:F34"/>
+  <dimension ref="B2:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -724,42 +694,6 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31" t="s">
-        <v>37</v>
-      </c>
-      <c r="D31" t="s">
-        <v>38</v>
-      </c>
-      <c r="E31" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>40</v>
-      </c>
-      <c r="C33" t="s">
-        <v>41</v>
-      </c>
-      <c r="D33" t="s">
-        <v>42</v>
-      </c>
-      <c r="E33" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>44</v>
-      </c>
-      <c r="C34" t="s">
-        <v>45</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
